--- a/natmiOut/OldD2/LR-pairs_lrc2p/C3-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C3-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H2">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I2">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J2">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>1.12779168137609</v>
+        <v>1.36953909226</v>
       </c>
       <c r="R2">
-        <v>1.12779168137609</v>
+        <v>5.47815636904</v>
       </c>
       <c r="S2">
-        <v>1.611534945266196E-05</v>
+        <v>1.751280652544958E-05</v>
       </c>
       <c r="T2">
-        <v>1.611534945266196E-05</v>
+        <v>7.969729566908903E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H3">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I3">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J3">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>81.07909436559136</v>
+        <v>94.75639109316664</v>
       </c>
       <c r="R3">
-        <v>81.07909436559136</v>
+        <v>568.5383465589999</v>
       </c>
       <c r="S3">
-        <v>0.001158563199732572</v>
+        <v>0.001211685269623121</v>
       </c>
       <c r="T3">
-        <v>0.001158563199732572</v>
+        <v>0.0008271207620323547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H4">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I4">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J4">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>113.5787707632562</v>
+        <v>126.4063607906367</v>
       </c>
       <c r="R4">
-        <v>113.5787707632562</v>
+        <v>758.43816474382</v>
       </c>
       <c r="S4">
-        <v>0.001622960704072865</v>
+        <v>0.001616405221744727</v>
       </c>
       <c r="T4">
-        <v>0.001622960704072865</v>
+        <v>0.001103390750288167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H5">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I5">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J5">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>86.14237345155983</v>
+        <v>97.40884275979333</v>
       </c>
       <c r="R5">
-        <v>86.14237345155983</v>
+        <v>584.45305655876</v>
       </c>
       <c r="S5">
-        <v>0.001230913894629679</v>
+        <v>0.001245603157121377</v>
       </c>
       <c r="T5">
-        <v>0.001230913894629679</v>
+        <v>0.0008502737949670638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H6">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I6">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J6">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>3.057145102355399</v>
+        <v>4.241957647753334</v>
       </c>
       <c r="R6">
-        <v>3.057145102355399</v>
+        <v>25.45174588652</v>
       </c>
       <c r="S6">
-        <v>4.368445207171375E-05</v>
+        <v>5.424349256921545E-05</v>
       </c>
       <c r="T6">
-        <v>4.368445207171375E-05</v>
+        <v>3.702770020725005E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H7">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I7">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J7">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>18.47123568191741</v>
+        <v>20.324422641595</v>
       </c>
       <c r="R7">
-        <v>18.47123568191741</v>
+        <v>81.29769056638</v>
       </c>
       <c r="S7">
-        <v>0.0002639409589130604</v>
+        <v>0.0002598959631567401</v>
       </c>
       <c r="T7">
-        <v>0.0002639409589130604</v>
+        <v>0.000118273478261781</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H8">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J8">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>185.4532953770053</v>
+        <v>218.2383119815667</v>
       </c>
       <c r="R8">
-        <v>185.4532953770053</v>
+        <v>1309.4298718894</v>
       </c>
       <c r="S8">
-        <v>0.002649997079692541</v>
+        <v>0.002790694588985345</v>
       </c>
       <c r="T8">
-        <v>0.002649997079692541</v>
+        <v>0.001904984316396845</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H9">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J9">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>13332.59101355957</v>
+        <v>15099.58712278361</v>
       </c>
       <c r="R9">
-        <v>13332.59101355957</v>
+        <v>135896.2841050525</v>
       </c>
       <c r="S9">
-        <v>0.1905133428815236</v>
+        <v>0.1930840451287224</v>
       </c>
       <c r="T9">
-        <v>0.1905133428815236</v>
+        <v>0.1977045853575891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H10">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I10">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J10">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>18676.81564844878</v>
+        <v>20143.0619677735</v>
       </c>
       <c r="R10">
-        <v>18676.81564844878</v>
+        <v>181287.5577099615</v>
       </c>
       <c r="S10">
-        <v>0.266878551959568</v>
+        <v>0.2575768366638118</v>
       </c>
       <c r="T10">
-        <v>0.266878551959568</v>
+        <v>0.2637407024303279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H11">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I11">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J11">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>14165.19317529975</v>
+        <v>15522.25966832012</v>
       </c>
       <c r="R11">
-        <v>14165.19317529975</v>
+        <v>139700.3370148811</v>
       </c>
       <c r="S11">
-        <v>0.2024106418358065</v>
+        <v>0.1984889164138386</v>
       </c>
       <c r="T11">
-        <v>0.2024106418358065</v>
+        <v>0.2032387963050689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H12">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I12">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J12">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>502.7148568658531</v>
+        <v>675.9629438655223</v>
       </c>
       <c r="R12">
-        <v>502.7148568658531</v>
+        <v>6083.666494789702</v>
       </c>
       <c r="S12">
-        <v>0.007183441523130493</v>
+        <v>0.008643789959113374</v>
       </c>
       <c r="T12">
-        <v>0.007183441523130493</v>
+        <v>0.008850637600042649</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.379604324632</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H13">
-        <v>101.379604324632</v>
+        <v>324.26945</v>
       </c>
       <c r="I13">
-        <v>0.7130382466599003</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J13">
-        <v>0.7130382466599003</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>3037.397405447412</v>
+        <v>3238.730251928841</v>
       </c>
       <c r="R13">
-        <v>3037.397405447412</v>
+        <v>19432.38151157305</v>
       </c>
       <c r="S13">
-        <v>0.04340227138017932</v>
+        <v>0.04141485015703556</v>
       </c>
       <c r="T13">
-        <v>0.04340227138017932</v>
+        <v>0.02827061059510746</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H14">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I14">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J14">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>24.50699524087129</v>
+        <v>35.50154335398067</v>
       </c>
       <c r="R14">
-        <v>24.50699524087129</v>
+        <v>213.009260123884</v>
       </c>
       <c r="S14">
-        <v>0.0003501877153939232</v>
+        <v>0.0004539714591769326</v>
       </c>
       <c r="T14">
-        <v>0.0003501877153939232</v>
+        <v>0.0003098900586388706</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H15">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I15">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J15">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>1761.854616029115</v>
+        <v>2456.299455395294</v>
       </c>
       <c r="R15">
-        <v>1761.854616029115</v>
+        <v>22106.69509855765</v>
       </c>
       <c r="S15">
-        <v>0.0251756625722321</v>
+        <v>0.03140961610662697</v>
       </c>
       <c r="T15">
-        <v>0.0251756625722321</v>
+        <v>0.03216125456902389</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H16">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I16">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J16">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>2468.07494728356</v>
+        <v>3276.738081585011</v>
       </c>
       <c r="R16">
-        <v>2468.07494728356</v>
+        <v>29490.6427342651</v>
       </c>
       <c r="S16">
-        <v>0.03526705410905688</v>
+        <v>0.04190087043274915</v>
       </c>
       <c r="T16">
-        <v>0.03526705410905688</v>
+        <v>0.04290356673181405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H17">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I17">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J17">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>1871.880038730964</v>
+        <v>2525.056987304583</v>
       </c>
       <c r="R17">
-        <v>1871.880038730964</v>
+        <v>22725.51288574125</v>
       </c>
       <c r="S17">
-        <v>0.02674784843314719</v>
+        <v>0.03228884427930202</v>
       </c>
       <c r="T17">
-        <v>0.02674784843314719</v>
+        <v>0.03306152284959335</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H18">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I18">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J18">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>66.43198536689003</v>
+        <v>109.9611133326269</v>
       </c>
       <c r="R18">
-        <v>66.43198536689003</v>
+        <v>989.6500199936422</v>
       </c>
       <c r="S18">
-        <v>0.0009492663199246892</v>
+        <v>0.001406113716651573</v>
       </c>
       <c r="T18">
-        <v>0.0009492663199246892</v>
+        <v>0.001439762302115062</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.3969551506456</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H19">
-        <v>13.3969551506456</v>
+        <v>52.749977</v>
       </c>
       <c r="I19">
-        <v>0.09422547537874634</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J19">
-        <v>0.09422547537874634</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>401.3812944580555</v>
+        <v>526.8548927395121</v>
       </c>
       <c r="R19">
-        <v>401.3812944580555</v>
+        <v>3161.129356437073</v>
       </c>
       <c r="S19">
-        <v>0.005735456228991572</v>
+        <v>0.006737089766680371</v>
       </c>
       <c r="T19">
-        <v>0.005735456228991572</v>
+        <v>0.004598873124396625</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H20">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I20">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J20">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>46.06843004016235</v>
+        <v>52.48735133327467</v>
       </c>
       <c r="R20">
-        <v>46.06843004016235</v>
+        <v>314.924107999648</v>
       </c>
       <c r="S20">
-        <v>0.0006582854449918144</v>
+        <v>0.0006711753130143086</v>
       </c>
       <c r="T20">
-        <v>0.0006582854449918144</v>
+        <v>0.0004581577826149272</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H21">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I21">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J21">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>3311.947275531797</v>
+        <v>3631.522472405644</v>
       </c>
       <c r="R21">
-        <v>3311.947275531797</v>
+        <v>32683.70225165079</v>
       </c>
       <c r="S21">
-        <v>0.04732539581145218</v>
+        <v>0.04643763059520509</v>
       </c>
       <c r="T21">
-        <v>0.04732539581145218</v>
+        <v>0.04754889248199306</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H22">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I22">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J22">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>4639.505452434556</v>
+        <v>4844.502144608555</v>
       </c>
       <c r="R22">
-        <v>4639.505452434556</v>
+        <v>43600.51930147698</v>
       </c>
       <c r="S22">
-        <v>0.06629526790114743</v>
+        <v>0.06194845349806825</v>
       </c>
       <c r="T22">
-        <v>0.06629526790114743</v>
+        <v>0.06343089251219332</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H23">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I23">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J23">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>3518.773874980682</v>
+        <v>3733.177228598857</v>
       </c>
       <c r="R23">
-        <v>3518.773874980682</v>
+        <v>33598.59505738971</v>
       </c>
       <c r="S23">
-        <v>0.05028080236504336</v>
+        <v>0.04773752782900052</v>
       </c>
       <c r="T23">
-        <v>0.05028080236504336</v>
+        <v>0.04887989651934722</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H24">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I24">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J24">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>124.8793350724484</v>
+        <v>162.5723008980249</v>
       </c>
       <c r="R24">
-        <v>124.8793350724484</v>
+        <v>1463.150708082224</v>
       </c>
       <c r="S24">
-        <v>0.001784437815371206</v>
+        <v>0.002078872569694986</v>
       </c>
       <c r="T24">
-        <v>0.001784437815371206</v>
+        <v>0.002128620410499541</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.1836949019119</v>
+        <v>25.99611466666667</v>
       </c>
       <c r="H25">
-        <v>25.1836949019119</v>
+        <v>77.988344</v>
       </c>
       <c r="I25">
-        <v>0.1771257421737063</v>
+        <v>0.1688341281153816</v>
       </c>
       <c r="J25">
-        <v>0.1771257421737063</v>
+        <v>0.1692456759269281</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>754.5195117324115</v>
+        <v>778.9300194965426</v>
       </c>
       <c r="R25">
-        <v>754.5195117324115</v>
+        <v>4673.580116979256</v>
       </c>
       <c r="S25">
-        <v>0.01078155283570038</v>
+        <v>0.009960468310398478</v>
       </c>
       <c r="T25">
-        <v>0.01078155283570038</v>
+        <v>0.006799216220280034</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H26">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I26">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J26">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>2.157239372294377</v>
+        <v>2.386092410432</v>
       </c>
       <c r="R26">
-        <v>2.157239372294377</v>
+        <v>14.316554462592</v>
       </c>
       <c r="S26">
-        <v>3.082543249046353E-05</v>
+        <v>3.051185247058737E-05</v>
       </c>
       <c r="T26">
-        <v>3.082543249046353E-05</v>
+        <v>2.082800484513661E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H27">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I27">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J27">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>155.0880517419757</v>
+        <v>165.0902167781333</v>
       </c>
       <c r="R27">
-        <v>155.0880517419757</v>
+        <v>1485.8119510032</v>
       </c>
       <c r="S27">
-        <v>0.002216099117440648</v>
+        <v>0.002111070097976511</v>
       </c>
       <c r="T27">
-        <v>0.002216099117440648</v>
+        <v>0.002161588432141072</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H28">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I28">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J28">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>217.2534167376846</v>
+        <v>220.2326752244373</v>
       </c>
       <c r="R28">
-        <v>217.2534167376846</v>
+        <v>1982.094077019936</v>
       </c>
       <c r="S28">
-        <v>0.003104398434860465</v>
+        <v>0.00281619725467138</v>
       </c>
       <c r="T28">
-        <v>0.003104398434860465</v>
+        <v>0.002883589424226137</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H29">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I29">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J29">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>164.7730894821357</v>
+        <v>169.7114757305387</v>
       </c>
       <c r="R29">
-        <v>164.7730894821357</v>
+        <v>1527.403281574848</v>
       </c>
       <c r="S29">
-        <v>0.002354491490981174</v>
+        <v>0.002170163857617884</v>
       </c>
       <c r="T29">
-        <v>0.002354491490981174</v>
+        <v>0.002222096317395548</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H30">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I30">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J30">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>5.847705645045209</v>
+        <v>7.390590751210668</v>
       </c>
       <c r="R30">
-        <v>5.847705645045209</v>
+        <v>66.51531676089601</v>
       </c>
       <c r="S30">
-        <v>8.355959839251698E-05</v>
+        <v>9.450623692759691E-05</v>
       </c>
       <c r="T30">
-        <v>8.355959839251698E-05</v>
+        <v>9.676779028024011E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.17927305390896</v>
+        <v>1.181792</v>
       </c>
       <c r="H31">
-        <v>1.17927305390896</v>
+        <v>3.545376</v>
       </c>
       <c r="I31">
-        <v>0.008294240210288602</v>
+        <v>0.007675255494605696</v>
       </c>
       <c r="J31">
-        <v>0.008294240210288602</v>
+        <v>0.00769396459469775</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>35.33177050866461</v>
+        <v>35.410417187504</v>
       </c>
       <c r="R31">
-        <v>35.33177050866461</v>
+        <v>212.462503125024</v>
       </c>
       <c r="S31">
-        <v>0.0005048661361233352</v>
+        <v>0.0004528061949417378</v>
       </c>
       <c r="T31">
-        <v>0.0005048661361233352</v>
+        <v>0.0003090946258096152</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H32">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I32">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J32">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>0.7750951989969697</v>
+        <v>0.898332117734</v>
       </c>
       <c r="R32">
-        <v>0.7750951989969697</v>
+        <v>3.593328470936</v>
       </c>
       <c r="S32">
-        <v>1.107556492673873E-05</v>
+        <v>1.148730741779092E-05</v>
       </c>
       <c r="T32">
-        <v>1.107556492673873E-05</v>
+        <v>5.227644891679633E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H33">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I33">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J33">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>55.7230717512583</v>
+        <v>62.15427508468333</v>
       </c>
       <c r="R33">
-        <v>55.7230717512583</v>
+        <v>372.9256505081</v>
       </c>
       <c r="S33">
-        <v>0.000796243480667973</v>
+        <v>0.0007947898679484978</v>
       </c>
       <c r="T33">
-        <v>0.000796243480667973</v>
+        <v>0.000542539566761943</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H34">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I34">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J34">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>78.05906124361633</v>
+        <v>82.91467868705635</v>
       </c>
       <c r="R34">
-        <v>78.05906124361633</v>
+        <v>497.4880721223381</v>
       </c>
       <c r="S34">
-        <v>0.00111540905174324</v>
+        <v>0.001060260882053426</v>
       </c>
       <c r="T34">
-        <v>0.00111540905174324</v>
+        <v>0.0007237554261841401</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H35">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I35">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J35">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>59.20290173717146</v>
+        <v>63.89411773418067</v>
       </c>
       <c r="R35">
-        <v>59.20290173717146</v>
+        <v>383.3647064050841</v>
       </c>
       <c r="S35">
-        <v>0.000845967802264686</v>
+        <v>0.0008170378839982566</v>
       </c>
       <c r="T35">
-        <v>0.000845967802264686</v>
+        <v>0.0005577265104758897</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H36">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I36">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J36">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>2.101078178357812</v>
+        <v>2.782459309544667</v>
       </c>
       <c r="R36">
-        <v>2.101078178357812</v>
+        <v>16.694755857268</v>
       </c>
       <c r="S36">
-        <v>3.002292855209243E-05</v>
+        <v>3.558034365603995E-05</v>
       </c>
       <c r="T36">
-        <v>3.002292855209243E-05</v>
+        <v>2.428785898116135E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.423712312194253</v>
+        <v>0.444929</v>
       </c>
       <c r="H37">
-        <v>0.423712312194253</v>
+        <v>0.889858</v>
       </c>
       <c r="I37">
-        <v>0.002980117018485899</v>
+        <v>0.002889631806577992</v>
       </c>
       <c r="J37">
-        <v>0.002980117018485899</v>
+        <v>0.001931117022935945</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>12.6946902810337</v>
+        <v>13.3315520064605</v>
       </c>
       <c r="R37">
-        <v>12.6946902810337</v>
+        <v>53.326208025842</v>
       </c>
       <c r="S37">
-        <v>0.0001813981903311694</v>
+        <v>0.0001704755215039808</v>
       </c>
       <c r="T37">
-        <v>0.0001813981903311694</v>
+        <v>7.758001564113159E-05</v>
       </c>
     </row>
   </sheetData>
